--- a/Code/Results/Cases/Case_5_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.77123767931139</v>
+        <v>15.28031864006898</v>
       </c>
       <c r="C2">
-        <v>12.04586937563372</v>
+        <v>10.92053664895577</v>
       </c>
       <c r="D2">
-        <v>4.184189789588076</v>
+        <v>5.060179375518758</v>
       </c>
       <c r="E2">
-        <v>7.478531045956732</v>
+        <v>12.55291291216698</v>
       </c>
       <c r="F2">
-        <v>20.6025260527042</v>
+        <v>25.98620036343338</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.14221383249884</v>
+        <v>9.860504489982572</v>
       </c>
       <c r="M2">
-        <v>11.79746275294313</v>
+        <v>14.82307386167018</v>
       </c>
       <c r="N2">
-        <v>12.11389259385988</v>
+        <v>18.24257211158297</v>
       </c>
       <c r="O2">
-        <v>16.2956579606675</v>
+        <v>23.16192675530845</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.42829367585351</v>
+        <v>14.8409310878603</v>
       </c>
       <c r="C3">
-        <v>11.60575806388236</v>
+        <v>10.75685622766334</v>
       </c>
       <c r="D3">
-        <v>4.094488868191421</v>
+        <v>5.032157787610059</v>
       </c>
       <c r="E3">
-        <v>7.575787344994196</v>
+        <v>12.59217483257692</v>
       </c>
       <c r="F3">
-        <v>19.95139073058748</v>
+        <v>25.95894039593519</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.058446682682612</v>
+        <v>9.867969407650083</v>
       </c>
       <c r="M3">
-        <v>11.25852960983895</v>
+        <v>14.73780870722297</v>
       </c>
       <c r="N3">
-        <v>12.30123712016482</v>
+        <v>18.30153048265199</v>
       </c>
       <c r="O3">
-        <v>16.01116253112229</v>
+        <v>23.19811678039135</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.55507301448807</v>
+        <v>14.56694563306081</v>
       </c>
       <c r="C4">
-        <v>11.32644193424779</v>
+        <v>10.65417043017128</v>
       </c>
       <c r="D4">
-        <v>4.03811385798971</v>
+        <v>5.014649981082602</v>
       </c>
       <c r="E4">
-        <v>7.637929101817879</v>
+        <v>12.61762104840495</v>
       </c>
       <c r="F4">
-        <v>19.56136630840745</v>
+        <v>25.94989977007672</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.009284010687662</v>
+        <v>9.87390073256962</v>
       </c>
       <c r="M4">
-        <v>10.9186396267923</v>
+        <v>14.68755931435047</v>
       </c>
       <c r="N4">
-        <v>12.41945697297904</v>
+        <v>18.33958109138847</v>
       </c>
       <c r="O4">
-        <v>15.85013236762414</v>
+        <v>23.22626614977677</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.18691977123186</v>
+        <v>14.45441237404868</v>
       </c>
       <c r="C5">
-        <v>11.21043697793281</v>
+        <v>10.61180508330514</v>
       </c>
       <c r="D5">
-        <v>4.014832534595211</v>
+        <v>5.007441558836981</v>
       </c>
       <c r="E5">
-        <v>7.663862427077696</v>
+        <v>12.62832814387292</v>
       </c>
       <c r="F5">
-        <v>19.40507973408112</v>
+        <v>25.9481535783078</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.989829913382073</v>
+        <v>9.876657197928946</v>
       </c>
       <c r="M5">
-        <v>10.77805777284485</v>
+        <v>14.66762743703641</v>
       </c>
       <c r="N5">
-        <v>12.46844470363511</v>
+        <v>18.35555340575668</v>
       </c>
       <c r="O5">
-        <v>15.7879202500017</v>
+        <v>23.23922446858817</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.12504259082427</v>
+        <v>14.43567834406963</v>
       </c>
       <c r="C6">
-        <v>11.19104597519024</v>
+        <v>10.60473981807145</v>
       </c>
       <c r="D6">
-        <v>4.010948641548275</v>
+        <v>5.006240209850445</v>
       </c>
       <c r="E6">
-        <v>7.668205488872444</v>
+        <v>12.6301264598742</v>
       </c>
       <c r="F6">
-        <v>19.37929426445869</v>
+        <v>25.94798070707379</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.986634854886881</v>
+        <v>9.877135418629708</v>
       </c>
       <c r="M6">
-        <v>10.75459494053576</v>
+        <v>14.66435114725329</v>
       </c>
       <c r="N6">
-        <v>12.47662843245876</v>
+        <v>18.35823380028433</v>
       </c>
       <c r="O6">
-        <v>15.77779493337089</v>
+        <v>23.24146589712074</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.55015790864419</v>
+        <v>14.5654313031822</v>
       </c>
       <c r="C7">
-        <v>11.32488613681812</v>
+        <v>10.65360114238072</v>
       </c>
       <c r="D7">
-        <v>4.037801100116471</v>
+        <v>5.014553061891507</v>
       </c>
       <c r="E7">
-        <v>7.638276377322797</v>
+        <v>12.61776408022723</v>
       </c>
       <c r="F7">
-        <v>19.5592475811621</v>
+        <v>25.94986837183668</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.009019285960844</v>
+        <v>9.873936532414767</v>
       </c>
       <c r="M7">
-        <v>10.91675182370109</v>
+        <v>14.68728827799375</v>
       </c>
       <c r="N7">
-        <v>12.42011433659134</v>
+        <v>18.33979460964714</v>
       </c>
       <c r="O7">
-        <v>15.84927959078015</v>
+        <v>23.22643489363581</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.31824125195876</v>
+        <v>15.12979048646475</v>
       </c>
       <c r="C8">
-        <v>11.89606273849199</v>
+        <v>10.86457061348766</v>
       </c>
       <c r="D8">
-        <v>4.153541087336915</v>
+        <v>5.050581620160393</v>
       </c>
       <c r="E8">
-        <v>7.511561415341145</v>
+        <v>12.56617294193402</v>
       </c>
       <c r="F8">
-        <v>20.37610116729535</v>
+        <v>25.97520559019661</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.112865410958614</v>
+        <v>9.862798955286916</v>
       </c>
       <c r="M8">
-        <v>11.61360559662779</v>
+        <v>14.79324771467097</v>
       </c>
       <c r="N8">
-        <v>12.17783306712145</v>
+        <v>18.26251772875179</v>
       </c>
       <c r="O8">
-        <v>16.19472000172637</v>
+        <v>23.17317262950706</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.40294648027816</v>
+        <v>16.19609998333192</v>
       </c>
       <c r="C9">
-        <v>12.94017251526026</v>
+        <v>11.25969596024838</v>
       </c>
       <c r="D9">
-        <v>4.36945343326132</v>
+        <v>5.118738642219849</v>
       </c>
       <c r="E9">
-        <v>7.282337932230452</v>
+        <v>12.47559282237654</v>
       </c>
       <c r="F9">
-        <v>22.04727284911488</v>
+        <v>26.08577796048751</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.334085306581865</v>
+        <v>9.851629899209073</v>
       </c>
       <c r="M9">
-        <v>12.94741332125257</v>
+        <v>15.0169840912392</v>
       </c>
       <c r="N9">
-        <v>11.72757417788576</v>
+        <v>18.12560128150691</v>
       </c>
       <c r="O9">
-        <v>16.98096262973672</v>
+        <v>23.11590196647014</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.44106096050269</v>
+        <v>16.94625651222396</v>
       </c>
       <c r="C10">
-        <v>13.65667418378701</v>
+        <v>11.53707234610262</v>
       </c>
       <c r="D10">
-        <v>4.520422266832146</v>
+        <v>5.167167530514183</v>
       </c>
       <c r="E10">
-        <v>7.125722546800583</v>
+        <v>12.41544858362903</v>
       </c>
       <c r="F10">
-        <v>23.30714276568019</v>
+        <v>26.20376620621704</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.50671611685729</v>
+        <v>9.84989650544872</v>
       </c>
       <c r="M10">
-        <v>14.07307536253904</v>
+        <v>15.1900504917274</v>
       </c>
       <c r="N10">
-        <v>11.41130722333267</v>
+        <v>18.03384609527445</v>
       </c>
       <c r="O10">
-        <v>17.62509600785213</v>
+        <v>23.10273681944917</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.3198084968499</v>
+        <v>17.27871705337092</v>
       </c>
       <c r="C11">
-        <v>13.97096607351967</v>
+        <v>11.66013701608433</v>
       </c>
       <c r="D11">
-        <v>4.587266605607938</v>
+        <v>5.188815307826547</v>
       </c>
       <c r="E11">
-        <v>7.057059557078563</v>
+        <v>12.38946742029901</v>
       </c>
       <c r="F11">
-        <v>23.88542251901046</v>
+        <v>26.26530547211679</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.587310273112259</v>
+        <v>9.850504878624488</v>
       </c>
       <c r="M11">
-        <v>14.55950977095618</v>
+        <v>15.27043723144011</v>
       </c>
       <c r="N11">
-        <v>11.2704642376904</v>
+        <v>17.99400693772252</v>
       </c>
       <c r="O11">
-        <v>17.93246989361279</v>
+        <v>23.10304496856797</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.64570044311014</v>
+        <v>17.40323155515519</v>
       </c>
       <c r="C12">
-        <v>14.08826247360159</v>
+        <v>11.7062655708246</v>
       </c>
       <c r="D12">
-        <v>4.612302565860404</v>
+        <v>5.196955464099919</v>
       </c>
       <c r="E12">
-        <v>7.031433354772577</v>
+        <v>12.37982649614574</v>
       </c>
       <c r="F12">
-        <v>24.105018507914</v>
+        <v>26.28972708571114</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.618114911827629</v>
+        <v>9.850935257959623</v>
       </c>
       <c r="M12">
-        <v>14.74006717420087</v>
+        <v>15.30109579543413</v>
       </c>
       <c r="N12">
-        <v>11.21755770697948</v>
+        <v>17.97919302236478</v>
       </c>
       <c r="O12">
-        <v>18.05091543597059</v>
+        <v>23.1040675806908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.57581789828063</v>
+        <v>17.37647829724849</v>
       </c>
       <c r="C13">
-        <v>14.06307765350484</v>
+        <v>11.69635240513993</v>
       </c>
       <c r="D13">
-        <v>4.606923118521053</v>
+        <v>5.195204925244576</v>
       </c>
       <c r="E13">
-        <v>7.036935669585271</v>
+        <v>12.38189406510102</v>
       </c>
       <c r="F13">
-        <v>24.05769905346254</v>
+        <v>26.28441795668674</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.611468061874497</v>
+        <v>9.850833687665066</v>
       </c>
       <c r="M13">
-        <v>14.70134230394486</v>
+        <v>15.2944835668582</v>
       </c>
       <c r="N13">
-        <v>11.22893316938197</v>
+        <v>17.98237136901756</v>
       </c>
       <c r="O13">
-        <v>18.02531512770977</v>
+        <v>23.10380705254712</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.34675699843627</v>
+        <v>17.288989245736</v>
       </c>
       <c r="C14">
-        <v>13.98065079106126</v>
+        <v>11.66394166794707</v>
       </c>
       <c r="D14">
-        <v>4.589331942040873</v>
+        <v>5.189486166871999</v>
       </c>
       <c r="E14">
-        <v>7.054943734283299</v>
+        <v>12.38867029978468</v>
       </c>
       <c r="F14">
-        <v>23.90347715441219</v>
+        <v>26.26729232720144</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.589838932152182</v>
+        <v>9.850536283134289</v>
       </c>
       <c r="M14">
-        <v>14.57443713126004</v>
+        <v>15.27295528279243</v>
       </c>
       <c r="N14">
-        <v>11.26610305621321</v>
+        <v>17.99278273625355</v>
       </c>
       <c r="O14">
-        <v>17.94217348012261</v>
+        <v>23.1031109435508</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.20555852628868</v>
+        <v>17.23521653595523</v>
       </c>
       <c r="C15">
-        <v>13.92993693348284</v>
+        <v>11.64402677736154</v>
       </c>
       <c r="D15">
-        <v>4.578520457201527</v>
+        <v>5.185975719458937</v>
       </c>
       <c r="E15">
-        <v>7.066023153172998</v>
+        <v>12.39284664959581</v>
       </c>
       <c r="F15">
-        <v>23.80908836417262</v>
+        <v>26.25694756666071</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.576627306432849</v>
+        <v>9.850380133170189</v>
       </c>
       <c r="M15">
-        <v>14.49623069565071</v>
+        <v>15.25979634208012</v>
       </c>
       <c r="N15">
-        <v>11.28892616196422</v>
+        <v>17.99919543220457</v>
       </c>
       <c r="O15">
-        <v>17.89151333748899</v>
+        <v>23.10280253496509</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.38266635255377</v>
+        <v>16.92434228651568</v>
       </c>
       <c r="C16">
-        <v>13.6358960837465</v>
+        <v>11.52896489405532</v>
       </c>
       <c r="D16">
-        <v>4.516015819024485</v>
+        <v>5.165744894143518</v>
       </c>
       <c r="E16">
-        <v>7.130262086204461</v>
+        <v>12.41717419906017</v>
       </c>
       <c r="F16">
-        <v>23.26944316327402</v>
+        <v>26.19990167506925</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.501489636418103</v>
+        <v>9.849884783420828</v>
       </c>
       <c r="M16">
-        <v>14.0407733466977</v>
+        <v>15.18482864140859</v>
       </c>
       <c r="N16">
-        <v>11.42057189267099</v>
+        <v>18.03648783840165</v>
       </c>
       <c r="O16">
-        <v>17.6052960098508</v>
+        <v>23.10284344524692</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.8655145485389</v>
+        <v>16.73129274875418</v>
       </c>
       <c r="C17">
-        <v>13.45249364761691</v>
+        <v>11.45756179810287</v>
       </c>
       <c r="D17">
-        <v>4.477192302817078</v>
+        <v>5.153234227316588</v>
       </c>
       <c r="E17">
-        <v>7.170334255918768</v>
+        <v>12.43245100431882</v>
       </c>
       <c r="F17">
-        <v>22.93961119944357</v>
+        <v>26.1669117708592</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.45591534429188</v>
+        <v>9.84993808799614</v>
       </c>
       <c r="M17">
-        <v>13.75482755267473</v>
+        <v>15.13924850643928</v>
       </c>
       <c r="N17">
-        <v>11.50210207953005</v>
+        <v>18.05985161768624</v>
       </c>
       <c r="O17">
-        <v>17.43337720895999</v>
+        <v>23.10448188293389</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.56350125056076</v>
+        <v>16.61943471032325</v>
       </c>
       <c r="C18">
-        <v>13.34591101842907</v>
+        <v>11.41620084453267</v>
       </c>
       <c r="D18">
-        <v>4.454690298602642</v>
+        <v>5.146002534002219</v>
       </c>
       <c r="E18">
-        <v>7.193625476810799</v>
+        <v>12.44136763368883</v>
       </c>
       <c r="F18">
-        <v>22.75039236198226</v>
+        <v>26.14867811681931</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.429897095018859</v>
+        <v>9.850100287624159</v>
       </c>
       <c r="M18">
-        <v>13.58794347147081</v>
+        <v>15.11318932803741</v>
       </c>
       <c r="N18">
-        <v>11.54928155615914</v>
+        <v>18.07346881128057</v>
       </c>
       <c r="O18">
-        <v>17.3358461184123</v>
+        <v>23.10601699523918</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46045866802349</v>
+        <v>16.58142424528977</v>
       </c>
       <c r="C19">
-        <v>13.30963751106156</v>
+        <v>11.40214741711145</v>
       </c>
       <c r="D19">
-        <v>4.447042427664599</v>
+        <v>5.143547914787119</v>
       </c>
       <c r="E19">
-        <v>7.201553083171738</v>
+        <v>12.44440896805168</v>
       </c>
       <c r="F19">
-        <v>22.68641485865237</v>
+        <v>26.14263219666323</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.421121590334705</v>
+        <v>9.850177823040829</v>
       </c>
       <c r="M19">
-        <v>13.53102330484441</v>
+        <v>15.10439377719947</v>
       </c>
       <c r="N19">
-        <v>11.56530499959369</v>
+        <v>18.07811012784884</v>
       </c>
       <c r="O19">
-        <v>17.30305642466458</v>
+        <v>23.10663853512581</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.92103767709581</v>
+        <v>16.751929062773</v>
       </c>
       <c r="C20">
-        <v>13.47213076636523</v>
+        <v>11.46519316581733</v>
       </c>
       <c r="D20">
-        <v>4.481343005880529</v>
+        <v>5.154569740545899</v>
       </c>
       <c r="E20">
-        <v>7.166043355826318</v>
+        <v>12.43081133193897</v>
       </c>
       <c r="F20">
-        <v>22.9746724785612</v>
+        <v>26.17034697311228</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.460746720843767</v>
+        <v>9.849918805771637</v>
       </c>
       <c r="M20">
-        <v>13.78551669047537</v>
+        <v>15.14408445657705</v>
       </c>
       <c r="N20">
-        <v>11.49339356667596</v>
+        <v>18.05734598862032</v>
       </c>
       <c r="O20">
-        <v>17.45153843175915</v>
+        <v>23.10424611824244</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.41422347687013</v>
+        <v>17.31472526009178</v>
       </c>
       <c r="C21">
-        <v>14.00490851877196</v>
+        <v>11.67347453021116</v>
       </c>
       <c r="D21">
-        <v>4.59450650047662</v>
+        <v>5.191167480896601</v>
       </c>
       <c r="E21">
-        <v>7.049644118144443</v>
+        <v>12.38667459858298</v>
       </c>
       <c r="F21">
-        <v>23.94876010029324</v>
+        <v>26.27229230972784</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.59618427341219</v>
+        <v>9.850618217406247</v>
       </c>
       <c r="M21">
-        <v>14.61181082326743</v>
+        <v>15.2792729146954</v>
       </c>
       <c r="N21">
-        <v>11.25517381072112</v>
+        <v>17.98971728291958</v>
       </c>
       <c r="O21">
-        <v>17.96653867976086</v>
+        <v>23.10329082131172</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.35010308676933</v>
+        <v>17.67444871893896</v>
       </c>
       <c r="C22">
-        <v>14.34307545531023</v>
+        <v>11.80682842769731</v>
       </c>
       <c r="D22">
-        <v>4.666848279107549</v>
+        <v>5.214750650228772</v>
       </c>
       <c r="E22">
-        <v>6.975758597683522</v>
+        <v>12.35898001991695</v>
       </c>
       <c r="F22">
-        <v>24.5889196387838</v>
+        <v>26.34542889778546</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.686359306322334</v>
+        <v>9.852240625375268</v>
       </c>
       <c r="M22">
-        <v>15.13061951713235</v>
+        <v>15.36888644649273</v>
       </c>
       <c r="N22">
-        <v>11.10197321721897</v>
+        <v>17.94710478287547</v>
       </c>
       <c r="O22">
-        <v>18.31506289945374</v>
+        <v>23.1079465867072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.85423645891463</v>
+        <v>17.48323412127833</v>
       </c>
       <c r="C23">
-        <v>14.16351963105132</v>
+        <v>11.73591646108008</v>
       </c>
       <c r="D23">
-        <v>4.628390086189161</v>
+        <v>5.202195343185982</v>
       </c>
       <c r="E23">
-        <v>7.014991004003404</v>
+        <v>12.37365601483714</v>
       </c>
       <c r="F23">
-        <v>24.24696672941091</v>
+        <v>26.30580368864528</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.638082955147858</v>
+        <v>9.851268398918403</v>
       </c>
       <c r="M23">
-        <v>14.85564863492989</v>
+        <v>15.32094959183533</v>
       </c>
       <c r="N23">
-        <v>11.18351376530675</v>
+        <v>17.96970301671952</v>
       </c>
       <c r="O23">
-        <v>18.12796072993569</v>
+        <v>23.10497863107965</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.89595030387796</v>
+        <v>16.74260209002853</v>
       </c>
       <c r="C24">
-        <v>13.46325637899073</v>
+        <v>11.46174398927726</v>
       </c>
       <c r="D24">
-        <v>4.479467038434517</v>
+        <v>5.153966076754857</v>
       </c>
       <c r="E24">
-        <v>7.167982483371933</v>
+        <v>12.43155221102696</v>
       </c>
       <c r="F24">
-        <v>22.95881999982051</v>
+        <v>26.16879163492865</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.458561884570326</v>
+        <v>9.84992711342406</v>
       </c>
       <c r="M24">
-        <v>13.77164989027463</v>
+        <v>15.14189766888974</v>
       </c>
       <c r="N24">
-        <v>11.49732972947188</v>
+        <v>18.05847820701938</v>
       </c>
       <c r="O24">
-        <v>17.44332366979857</v>
+        <v>23.10435085983844</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.60889636028515</v>
+        <v>15.9128984735117</v>
       </c>
       <c r="C25">
-        <v>12.66633467622282</v>
+        <v>11.15496236602522</v>
       </c>
       <c r="D25">
-        <v>4.31232664587992</v>
+        <v>5.100580398536101</v>
       </c>
       <c r="E25">
-        <v>7.342283516961212</v>
+        <v>12.49896871819296</v>
       </c>
       <c r="F25">
-        <v>21.58886070520138</v>
+        <v>26.04937746147574</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.272419724918683</v>
+        <v>9.853512081559916</v>
       </c>
       <c r="M25">
-        <v>12.56271699249989</v>
+        <v>14.95485454697824</v>
       </c>
       <c r="N25">
-        <v>11.84678526510825</v>
+        <v>18.16108336179713</v>
       </c>
       <c r="O25">
-        <v>16.7565682963498</v>
+        <v>23.12632647971817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.28031864006898</v>
+        <v>19.77123767931137</v>
       </c>
       <c r="C2">
-        <v>10.92053664895577</v>
+        <v>12.04586937563364</v>
       </c>
       <c r="D2">
-        <v>5.060179375518758</v>
+        <v>4.184189789588181</v>
       </c>
       <c r="E2">
-        <v>12.55291291216698</v>
+        <v>7.478531045956731</v>
       </c>
       <c r="F2">
-        <v>25.98620036343338</v>
+        <v>20.60252605270421</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.860504489982572</v>
+        <v>6.142213832498836</v>
       </c>
       <c r="M2">
-        <v>14.82307386167018</v>
+        <v>11.79746275294315</v>
       </c>
       <c r="N2">
-        <v>18.24257211158297</v>
+        <v>12.11389259385988</v>
       </c>
       <c r="O2">
-        <v>23.16192675530845</v>
+        <v>16.29565796066753</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.8409310878603</v>
+        <v>18.42829367585351</v>
       </c>
       <c r="C3">
-        <v>10.75685622766334</v>
+        <v>11.60575806388256</v>
       </c>
       <c r="D3">
-        <v>5.032157787610059</v>
+        <v>4.094488868191352</v>
       </c>
       <c r="E3">
-        <v>12.59217483257692</v>
+        <v>7.575787344994326</v>
       </c>
       <c r="F3">
-        <v>25.95894039593519</v>
+        <v>19.95139073058759</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.867969407650083</v>
+        <v>6.058446682682607</v>
       </c>
       <c r="M3">
-        <v>14.73780870722297</v>
+        <v>11.25852960983899</v>
       </c>
       <c r="N3">
-        <v>18.30153048265199</v>
+        <v>12.30123712016485</v>
       </c>
       <c r="O3">
-        <v>23.19811678039135</v>
+        <v>16.01116253112241</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.56694563306081</v>
+        <v>17.55507301448812</v>
       </c>
       <c r="C4">
-        <v>10.65417043017128</v>
+        <v>11.32644193424768</v>
       </c>
       <c r="D4">
-        <v>5.014649981082602</v>
+        <v>4.038113857989718</v>
       </c>
       <c r="E4">
-        <v>12.61762104840495</v>
+        <v>7.637929101817681</v>
       </c>
       <c r="F4">
-        <v>25.94989977007672</v>
+        <v>19.56136630840725</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.87390073256962</v>
+        <v>6.009284010687609</v>
       </c>
       <c r="M4">
-        <v>14.68755931435047</v>
+        <v>10.91863962679222</v>
       </c>
       <c r="N4">
-        <v>18.33958109138847</v>
+        <v>12.41945697297897</v>
       </c>
       <c r="O4">
-        <v>23.22626614977677</v>
+        <v>15.85013236762397</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.45441237404868</v>
+        <v>17.18691977123189</v>
       </c>
       <c r="C5">
-        <v>10.61180508330514</v>
+        <v>11.2104369779328</v>
       </c>
       <c r="D5">
-        <v>5.007441558836981</v>
+        <v>4.014832534595334</v>
       </c>
       <c r="E5">
-        <v>12.62832814387292</v>
+        <v>7.663862427077698</v>
       </c>
       <c r="F5">
-        <v>25.9481535783078</v>
+        <v>19.40507973408111</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.876657197928946</v>
+        <v>5.989829913382072</v>
       </c>
       <c r="M5">
-        <v>14.66762743703641</v>
+        <v>10.77805777284485</v>
       </c>
       <c r="N5">
-        <v>18.35555340575668</v>
+        <v>12.46844470363511</v>
       </c>
       <c r="O5">
-        <v>23.23922446858817</v>
+        <v>15.78792025000171</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.43567834406963</v>
+        <v>17.12504259082425</v>
       </c>
       <c r="C6">
-        <v>10.60473981807145</v>
+        <v>11.19104597519034</v>
       </c>
       <c r="D6">
-        <v>5.006240209850445</v>
+        <v>4.010948641548271</v>
       </c>
       <c r="E6">
-        <v>12.6301264598742</v>
+        <v>7.668205488872509</v>
       </c>
       <c r="F6">
-        <v>25.94798070707379</v>
+        <v>19.37929426445875</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.877135418629708</v>
+        <v>5.986634854886878</v>
       </c>
       <c r="M6">
-        <v>14.66435114725329</v>
+        <v>10.75459494053577</v>
       </c>
       <c r="N6">
-        <v>18.35823380028433</v>
+        <v>12.47662843245883</v>
       </c>
       <c r="O6">
-        <v>23.24146589712074</v>
+        <v>15.77779493337095</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.5654313031822</v>
+        <v>17.5501579086442</v>
       </c>
       <c r="C7">
-        <v>10.65360114238072</v>
+        <v>11.32488613681798</v>
       </c>
       <c r="D7">
-        <v>5.014553061891507</v>
+        <v>4.03780110011659</v>
       </c>
       <c r="E7">
-        <v>12.61776408022723</v>
+        <v>7.638276377322731</v>
       </c>
       <c r="F7">
-        <v>25.94986837183668</v>
+        <v>19.55924758116217</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.873936532414767</v>
+        <v>6.009019285960874</v>
       </c>
       <c r="M7">
-        <v>14.68728827799375</v>
+        <v>10.91675182370114</v>
       </c>
       <c r="N7">
-        <v>18.33979460964714</v>
+        <v>12.42011433659134</v>
       </c>
       <c r="O7">
-        <v>23.22643489363581</v>
+        <v>15.84927959078025</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.12979048646475</v>
+        <v>19.31824125195872</v>
       </c>
       <c r="C8">
-        <v>10.86457061348766</v>
+        <v>11.89606273849207</v>
       </c>
       <c r="D8">
-        <v>5.050581620160393</v>
+        <v>4.153541087336963</v>
       </c>
       <c r="E8">
-        <v>12.56617294193402</v>
+        <v>7.51156141534121</v>
       </c>
       <c r="F8">
-        <v>25.97520559019661</v>
+        <v>20.37610116729541</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.862798955286916</v>
+        <v>6.112865410958636</v>
       </c>
       <c r="M8">
-        <v>14.79324771467097</v>
+        <v>11.61360559662781</v>
       </c>
       <c r="N8">
-        <v>18.26251772875179</v>
+        <v>12.17783306712152</v>
       </c>
       <c r="O8">
-        <v>23.17317262950706</v>
+        <v>16.19472000172648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.19609998333192</v>
+        <v>22.40294648027819</v>
       </c>
       <c r="C9">
-        <v>11.25969596024838</v>
+        <v>12.94017251526034</v>
       </c>
       <c r="D9">
-        <v>5.118738642219849</v>
+        <v>4.369453433261326</v>
       </c>
       <c r="E9">
-        <v>12.47559282237654</v>
+        <v>7.282337932230325</v>
       </c>
       <c r="F9">
-        <v>26.08577796048751</v>
+        <v>22.04727284911475</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.851629899209073</v>
+        <v>6.334085306581796</v>
       </c>
       <c r="M9">
-        <v>15.0169840912392</v>
+        <v>12.94741332125261</v>
       </c>
       <c r="N9">
-        <v>18.12560128150691</v>
+        <v>11.72757417788566</v>
       </c>
       <c r="O9">
-        <v>23.11590196647014</v>
+        <v>16.98096262973661</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.94625651222396</v>
+        <v>24.44106096050268</v>
       </c>
       <c r="C10">
-        <v>11.53707234610262</v>
+        <v>13.65667418378701</v>
       </c>
       <c r="D10">
-        <v>5.167167530514183</v>
+        <v>4.520422266832261</v>
       </c>
       <c r="E10">
-        <v>12.41544858362903</v>
+        <v>7.125722546800585</v>
       </c>
       <c r="F10">
-        <v>26.20376620621704</v>
+        <v>23.30714276568023</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.84989650544872</v>
+        <v>6.506716116857321</v>
       </c>
       <c r="M10">
-        <v>15.1900504917274</v>
+        <v>14.07307536253903</v>
       </c>
       <c r="N10">
-        <v>18.03384609527445</v>
+        <v>11.41130722333263</v>
       </c>
       <c r="O10">
-        <v>23.10273681944917</v>
+        <v>17.62509600785216</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27871705337092</v>
+        <v>25.31980849684986</v>
       </c>
       <c r="C11">
-        <v>11.66013701608433</v>
+        <v>13.97096607351959</v>
       </c>
       <c r="D11">
-        <v>5.188815307826547</v>
+        <v>4.587266605608034</v>
       </c>
       <c r="E11">
-        <v>12.38946742029901</v>
+        <v>7.057059557078622</v>
       </c>
       <c r="F11">
-        <v>26.26530547211679</v>
+        <v>23.88542251901048</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.850504878624488</v>
+        <v>6.587310273112286</v>
       </c>
       <c r="M11">
-        <v>15.27043723144011</v>
+        <v>14.55950977095614</v>
       </c>
       <c r="N11">
-        <v>17.99400693772252</v>
+        <v>11.27046423769043</v>
       </c>
       <c r="O11">
-        <v>23.10304496856797</v>
+        <v>17.93246989361284</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.40323155515519</v>
+        <v>25.64570044311015</v>
       </c>
       <c r="C12">
-        <v>11.7062655708246</v>
+        <v>14.08826247360158</v>
       </c>
       <c r="D12">
-        <v>5.196955464099919</v>
+        <v>4.61230256586045</v>
       </c>
       <c r="E12">
-        <v>12.37982649614574</v>
+        <v>7.031433354772644</v>
       </c>
       <c r="F12">
-        <v>26.28972708571114</v>
+        <v>24.10501850791402</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.850935257959623</v>
+        <v>6.618114911827647</v>
       </c>
       <c r="M12">
-        <v>15.30109579543413</v>
+        <v>14.74006717420087</v>
       </c>
       <c r="N12">
-        <v>17.97919302236478</v>
+        <v>11.21755770697954</v>
       </c>
       <c r="O12">
-        <v>23.1040675806908</v>
+        <v>18.05091543597062</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.37647829724849</v>
+        <v>25.5758178982806</v>
       </c>
       <c r="C13">
-        <v>11.69635240513993</v>
+        <v>14.06307765350485</v>
       </c>
       <c r="D13">
-        <v>5.195204925244576</v>
+        <v>4.606923118521053</v>
       </c>
       <c r="E13">
-        <v>12.38189406510102</v>
+        <v>7.036935669585207</v>
       </c>
       <c r="F13">
-        <v>26.28441795668674</v>
+        <v>24.05769905346256</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.850833687665066</v>
+        <v>6.611468061874463</v>
       </c>
       <c r="M13">
-        <v>15.2944835668582</v>
+        <v>14.70134230394487</v>
       </c>
       <c r="N13">
-        <v>17.98237136901756</v>
+        <v>11.2289331693821</v>
       </c>
       <c r="O13">
-        <v>23.10380705254712</v>
+        <v>18.02531512770981</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.288989245736</v>
+        <v>25.3467569984363</v>
       </c>
       <c r="C14">
-        <v>11.66394166794707</v>
+        <v>13.98065079106122</v>
       </c>
       <c r="D14">
-        <v>5.189486166871999</v>
+        <v>4.589331942040926</v>
       </c>
       <c r="E14">
-        <v>12.38867029978468</v>
+        <v>7.054943734283299</v>
       </c>
       <c r="F14">
-        <v>26.26729232720144</v>
+        <v>23.9034771544122</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.850536283134289</v>
+        <v>6.589838932152166</v>
       </c>
       <c r="M14">
-        <v>15.27295528279243</v>
+        <v>14.57443713126005</v>
       </c>
       <c r="N14">
-        <v>17.99278273625355</v>
+        <v>11.26610305621324</v>
       </c>
       <c r="O14">
-        <v>23.1031109435508</v>
+        <v>17.94217348012263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.23521653595523</v>
+        <v>25.20555852628864</v>
       </c>
       <c r="C15">
-        <v>11.64402677736154</v>
+        <v>13.92993693348302</v>
       </c>
       <c r="D15">
-        <v>5.185975719458937</v>
+        <v>4.578520457201521</v>
       </c>
       <c r="E15">
-        <v>12.39284664959581</v>
+        <v>7.066023153173062</v>
       </c>
       <c r="F15">
-        <v>26.25694756666071</v>
+        <v>23.80908836417258</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.850380133170189</v>
+        <v>6.57662730643286</v>
       </c>
       <c r="M15">
-        <v>15.25979634208012</v>
+        <v>14.49623069565069</v>
       </c>
       <c r="N15">
-        <v>17.99919543220457</v>
+        <v>11.28892616196422</v>
       </c>
       <c r="O15">
-        <v>23.10280253496509</v>
+        <v>17.89151333748898</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.92434228651568</v>
+        <v>24.38266635255378</v>
       </c>
       <c r="C16">
-        <v>11.52896489405532</v>
+        <v>13.63589608374651</v>
       </c>
       <c r="D16">
-        <v>5.165744894143518</v>
+        <v>4.516015819024584</v>
       </c>
       <c r="E16">
-        <v>12.41717419906017</v>
+        <v>7.130262086204397</v>
       </c>
       <c r="F16">
-        <v>26.19990167506925</v>
+        <v>23.26944316327403</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.849884783420828</v>
+        <v>6.501489636418071</v>
       </c>
       <c r="M16">
-        <v>15.18482864140859</v>
+        <v>14.04077334669771</v>
       </c>
       <c r="N16">
-        <v>18.03648783840165</v>
+        <v>11.42057189267099</v>
       </c>
       <c r="O16">
-        <v>23.10284344524692</v>
+        <v>17.60529600985084</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.73129274875418</v>
+        <v>23.865514548539</v>
       </c>
       <c r="C17">
-        <v>11.45756179810287</v>
+        <v>13.45249364761681</v>
       </c>
       <c r="D17">
-        <v>5.153234227316588</v>
+        <v>4.477192302816916</v>
       </c>
       <c r="E17">
-        <v>12.43245100431882</v>
+        <v>7.170334255918767</v>
       </c>
       <c r="F17">
-        <v>26.1669117708592</v>
+        <v>22.93961119944349</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.84993808799614</v>
+        <v>6.455915344291902</v>
       </c>
       <c r="M17">
-        <v>15.13924850643928</v>
+        <v>13.75482755267476</v>
       </c>
       <c r="N17">
-        <v>18.05985161768624</v>
+        <v>11.50210207952995</v>
       </c>
       <c r="O17">
-        <v>23.10448188293389</v>
+        <v>17.43337720895989</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.61943471032325</v>
+        <v>23.56350125056077</v>
       </c>
       <c r="C18">
-        <v>11.41620084453267</v>
+        <v>13.34591101842907</v>
       </c>
       <c r="D18">
-        <v>5.146002534002219</v>
+        <v>4.454690298602635</v>
       </c>
       <c r="E18">
-        <v>12.44136763368883</v>
+        <v>7.193625476810796</v>
       </c>
       <c r="F18">
-        <v>26.14867811681931</v>
+        <v>22.75039236198225</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.850100287624159</v>
+        <v>6.429897095018859</v>
       </c>
       <c r="M18">
-        <v>15.11318932803741</v>
+        <v>13.58794347147081</v>
       </c>
       <c r="N18">
-        <v>18.07346881128057</v>
+        <v>11.54928155615914</v>
       </c>
       <c r="O18">
-        <v>23.10601699523918</v>
+        <v>17.33584611841229</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.58142424528977</v>
+        <v>23.46045866802347</v>
       </c>
       <c r="C19">
-        <v>11.40214741711145</v>
+        <v>13.30963751106158</v>
       </c>
       <c r="D19">
-        <v>5.143547914787119</v>
+        <v>4.447042427664608</v>
       </c>
       <c r="E19">
-        <v>12.44440896805168</v>
+        <v>7.201553083171738</v>
       </c>
       <c r="F19">
-        <v>26.14263219666323</v>
+        <v>22.68641485865238</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.850177823040829</v>
+        <v>6.421121590334695</v>
       </c>
       <c r="M19">
-        <v>15.10439377719947</v>
+        <v>13.53102330484441</v>
       </c>
       <c r="N19">
-        <v>18.07811012784884</v>
+        <v>11.56530499959369</v>
       </c>
       <c r="O19">
-        <v>23.10663853512581</v>
+        <v>17.30305642466462</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.751929062773</v>
+        <v>23.92103767709587</v>
       </c>
       <c r="C20">
-        <v>11.46519316581733</v>
+        <v>13.47213076636504</v>
       </c>
       <c r="D20">
-        <v>5.154569740545899</v>
+        <v>4.481343005880529</v>
       </c>
       <c r="E20">
-        <v>12.43081133193897</v>
+        <v>7.166043355826382</v>
       </c>
       <c r="F20">
-        <v>26.17034697311228</v>
+        <v>22.9746724785611</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.849918805771637</v>
+        <v>6.460746720843832</v>
       </c>
       <c r="M20">
-        <v>15.14408445657705</v>
+        <v>13.7855166904754</v>
       </c>
       <c r="N20">
-        <v>18.05734598862032</v>
+        <v>11.49339356667594</v>
       </c>
       <c r="O20">
-        <v>23.10424611824244</v>
+        <v>17.45153843175904</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.31472526009178</v>
+        <v>25.41422347687014</v>
       </c>
       <c r="C21">
-        <v>11.67347453021116</v>
+        <v>14.00490851877166</v>
       </c>
       <c r="D21">
-        <v>5.191167480896601</v>
+        <v>4.594506500476676</v>
       </c>
       <c r="E21">
-        <v>12.38667459858298</v>
+        <v>7.049644118144381</v>
       </c>
       <c r="F21">
-        <v>26.27229230972784</v>
+        <v>23.9487601002932</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.850618217406247</v>
+        <v>6.596184273412181</v>
       </c>
       <c r="M21">
-        <v>15.2792729146954</v>
+        <v>14.61181082326743</v>
       </c>
       <c r="N21">
-        <v>17.98971728291958</v>
+        <v>11.25517381072109</v>
       </c>
       <c r="O21">
-        <v>23.10329082131172</v>
+        <v>17.96653867976082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67444871893896</v>
+        <v>26.35010308676937</v>
       </c>
       <c r="C22">
-        <v>11.80682842769731</v>
+        <v>14.34307545531032</v>
       </c>
       <c r="D22">
-        <v>5.214750650228772</v>
+        <v>4.666848279107454</v>
       </c>
       <c r="E22">
-        <v>12.35898001991695</v>
+        <v>6.975758597683591</v>
       </c>
       <c r="F22">
-        <v>26.34542889778546</v>
+        <v>24.5889196387838</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.852240625375268</v>
+        <v>6.686359306322378</v>
       </c>
       <c r="M22">
-        <v>15.36888644649273</v>
+        <v>15.13061951713235</v>
       </c>
       <c r="N22">
-        <v>17.94710478287547</v>
+        <v>11.10197321721897</v>
       </c>
       <c r="O22">
-        <v>23.1079465867072</v>
+        <v>18.31506289945369</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.48323412127833</v>
+        <v>25.85423645891461</v>
       </c>
       <c r="C23">
-        <v>11.73591646108008</v>
+        <v>14.16351963105132</v>
       </c>
       <c r="D23">
-        <v>5.202195343185982</v>
+        <v>4.628390086189054</v>
       </c>
       <c r="E23">
-        <v>12.37365601483714</v>
+        <v>7.0149910040034</v>
       </c>
       <c r="F23">
-        <v>26.30580368864528</v>
+        <v>24.24696672941096</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.851268398918403</v>
+        <v>6.63808295514789</v>
       </c>
       <c r="M23">
-        <v>15.32094959183533</v>
+        <v>14.85564863492987</v>
       </c>
       <c r="N23">
-        <v>17.96970301671952</v>
+        <v>11.18351376530678</v>
       </c>
       <c r="O23">
-        <v>23.10497863107965</v>
+        <v>18.12796072993572</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.74260209002853</v>
+        <v>23.895950303878</v>
       </c>
       <c r="C24">
-        <v>11.46174398927726</v>
+        <v>13.46325637899055</v>
       </c>
       <c r="D24">
-        <v>5.153966076754857</v>
+        <v>4.479467038434592</v>
       </c>
       <c r="E24">
-        <v>12.43155221102696</v>
+        <v>7.167982483371932</v>
       </c>
       <c r="F24">
-        <v>26.16879163492865</v>
+        <v>22.95881999982037</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.84992711342406</v>
+        <v>6.458561884570304</v>
       </c>
       <c r="M24">
-        <v>15.14189766888974</v>
+        <v>13.77164989027464</v>
       </c>
       <c r="N24">
-        <v>18.05847820701938</v>
+        <v>11.49732972947186</v>
       </c>
       <c r="O24">
-        <v>23.10435085983844</v>
+        <v>17.44332366979843</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.9128984735117</v>
+        <v>21.60889636028511</v>
       </c>
       <c r="C25">
-        <v>11.15496236602522</v>
+        <v>12.66633467622303</v>
       </c>
       <c r="D25">
-        <v>5.100580398536101</v>
+        <v>4.312326645880034</v>
       </c>
       <c r="E25">
-        <v>12.49896871819296</v>
+        <v>7.342283516961209</v>
       </c>
       <c r="F25">
-        <v>26.04937746147574</v>
+        <v>21.58886070520137</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.853512081559916</v>
+        <v>6.272419724918659</v>
       </c>
       <c r="M25">
-        <v>14.95485454697824</v>
+        <v>12.56271699249988</v>
       </c>
       <c r="N25">
-        <v>18.16108336179713</v>
+        <v>11.84678526510829</v>
       </c>
       <c r="O25">
-        <v>23.12632647971817</v>
+        <v>16.7565682963498</v>
       </c>
     </row>
   </sheetData>
